--- a/backend/data/test_inventory_report.xlsx
+++ b/backend/data/test_inventory_report.xlsx
@@ -477,11 +477,11 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>RECV-01</t>
+          <t>RCV-001</t>
         </is>
       </c>
       <c r="C2" s="2" t="n">
-        <v>45884.7939245128</v>
+        <v>45884.8661861954</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -507,11 +507,11 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>RECV-01</t>
+          <t>RCV-001</t>
         </is>
       </c>
       <c r="C3" s="2" t="n">
-        <v>45884.83559117946</v>
+        <v>45884.90785286207</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -537,11 +537,11 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>RECV-01</t>
+          <t>RCV-002</t>
         </is>
       </c>
       <c r="C4" s="2" t="n">
-        <v>45884.87725784614</v>
+        <v>45884.94951952874</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -567,11 +567,11 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>RECV-02</t>
+          <t>RCV-002</t>
         </is>
       </c>
       <c r="C5" s="2" t="n">
-        <v>45884.75225784614</v>
+        <v>45884.82451952874</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -597,11 +597,11 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>RECV-02</t>
+          <t>RCV-003</t>
         </is>
       </c>
       <c r="C6" s="2" t="n">
-        <v>45884.6689245128</v>
+        <v>45884.7411861954</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -627,11 +627,11 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>RECV-01</t>
+          <t>RCV-004</t>
         </is>
       </c>
       <c r="C7" s="2" t="n">
-        <v>45885.08559117946</v>
+        <v>45885.15785286207</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -657,11 +657,11 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>RECV-02</t>
+          <t>RCV-005</t>
         </is>
       </c>
       <c r="C8" s="2" t="n">
-        <v>45885.12725784614</v>
+        <v>45885.19951952874</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -687,11 +687,11 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>RECV-01</t>
+          <t>RCV-004</t>
         </is>
       </c>
       <c r="C9" s="2" t="n">
-        <v>45885.1689245128</v>
+        <v>45885.2411861954</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -717,11 +717,11 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>01-01-001-A</t>
+          <t>01-01-001B</t>
         </is>
       </c>
       <c r="C10" s="2" t="n">
-        <v>45884.58559117946</v>
+        <v>45884.65785286207</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -747,11 +747,11 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>01-01-001-B</t>
+          <t>01-01-001C</t>
         </is>
       </c>
       <c r="C11" s="2" t="n">
-        <v>45884.37725784614</v>
+        <v>45884.44951952874</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -777,11 +777,11 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>01-02-010-A</t>
+          <t>01-01-002B</t>
         </is>
       </c>
       <c r="C12" s="2" t="n">
-        <v>45884.9189245128</v>
+        <v>45884.9911861954</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -807,11 +807,11 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>01-02-011-A</t>
+          <t>01-01-002C</t>
         </is>
       </c>
       <c r="C13" s="2" t="n">
-        <v>45884.9189245128</v>
+        <v>45884.9911861954</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -837,11 +837,11 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>01-02-012-A</t>
+          <t>01-01-003B</t>
         </is>
       </c>
       <c r="C14" s="2" t="n">
-        <v>45884.9189245128</v>
+        <v>45884.9911861954</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -867,11 +867,11 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>01-02-013-A</t>
+          <t>01-01-003C</t>
         </is>
       </c>
       <c r="C15" s="2" t="n">
-        <v>45884.9189245128</v>
+        <v>45884.9911861954</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -897,11 +897,11 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>01-02-014-A</t>
+          <t>01-01-004A</t>
         </is>
       </c>
       <c r="C16" s="2" t="n">
-        <v>45884.9189245128</v>
+        <v>45884.9911861954</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -927,11 +927,11 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>01-02-015-A</t>
+          <t>01-01-004B</t>
         </is>
       </c>
       <c r="C17" s="2" t="n">
-        <v>45884.9189245128</v>
+        <v>45884.9911861954</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -957,11 +957,11 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>01-02-016-A</t>
+          <t>01-01-004C</t>
         </is>
       </c>
       <c r="C18" s="2" t="n">
-        <v>45884.9189245128</v>
+        <v>45884.9911861954</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -987,11 +987,11 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>01-02-017-A</t>
+          <t>01-01-005A</t>
         </is>
       </c>
       <c r="C19" s="2" t="n">
-        <v>45884.9189245128</v>
+        <v>45884.9911861954</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -1017,11 +1017,11 @@
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>01-02-018-A</t>
+          <t>01-01-005B</t>
         </is>
       </c>
       <c r="C20" s="2" t="n">
-        <v>45884.9189245128</v>
+        <v>45884.9911861954</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -1047,11 +1047,11 @@
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>RECV-01</t>
+          <t>RCV-001</t>
         </is>
       </c>
       <c r="C21" s="2" t="n">
-        <v>45884.9189245128</v>
+        <v>45884.9911861954</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -1077,11 +1077,11 @@
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>02-01-001-A</t>
+          <t>01-01-005C</t>
         </is>
       </c>
       <c r="C22" s="2" t="n">
-        <v>45885.00225784614</v>
+        <v>45885.07451952874</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -1107,11 +1107,11 @@
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>02-01-002-A</t>
+          <t>01-01-006A</t>
         </is>
       </c>
       <c r="C23" s="2" t="n">
-        <v>45885.00225784614</v>
+        <v>45885.07451952874</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -1137,11 +1137,11 @@
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>02-01-003-A</t>
+          <t>01-01-006B</t>
         </is>
       </c>
       <c r="C24" s="2" t="n">
-        <v>45885.00225784614</v>
+        <v>45885.07451952874</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -1167,11 +1167,11 @@
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>RECV-02</t>
+          <t>RCV-002</t>
         </is>
       </c>
       <c r="C25" s="2" t="n">
-        <v>45885.00225784614</v>
+        <v>45885.07451952874</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -1197,11 +1197,11 @@
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>RECV-02</t>
+          <t>RCV-003</t>
         </is>
       </c>
       <c r="C26" s="2" t="n">
-        <v>45885.00225784614</v>
+        <v>45885.07451952874</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -1227,11 +1227,11 @@
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>RECV-01</t>
+          <t>RCV-001</t>
         </is>
       </c>
       <c r="C27" s="2" t="n">
-        <v>45885.21059117946</v>
+        <v>45885.28285286207</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -1257,11 +1257,11 @@
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>RECV-01</t>
+          <t>RCV-001</t>
         </is>
       </c>
       <c r="C28" s="2" t="n">
-        <v>45885.21059117946</v>
+        <v>45885.28285286207</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -1287,11 +1287,11 @@
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>RECV-01</t>
+          <t>RCV-001</t>
         </is>
       </c>
       <c r="C29" s="2" t="n">
-        <v>45885.21059117946</v>
+        <v>45885.28285286207</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -1317,11 +1317,11 @@
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>RECV-01</t>
+          <t>RCV-002</t>
         </is>
       </c>
       <c r="C30" s="2" t="n">
-        <v>45885.21059117946</v>
+        <v>45885.28285286207</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -1347,11 +1347,11 @@
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>RECV-01</t>
+          <t>RCV-002</t>
         </is>
       </c>
       <c r="C31" s="2" t="n">
-        <v>45885.21059117946</v>
+        <v>45885.28285286207</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -1377,11 +1377,11 @@
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>03-01-001-A</t>
+          <t>01-01-006C</t>
         </is>
       </c>
       <c r="C32" s="2" t="n">
-        <v>45885.21059117946</v>
+        <v>45885.28285286207</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -1407,11 +1407,11 @@
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>03-01-001-A</t>
+          <t>01-01-006C</t>
         </is>
       </c>
       <c r="C33" s="2" t="n">
-        <v>45885.21059117946</v>
+        <v>45885.28285286207</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -1437,11 +1437,11 @@
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>03-01-001-A</t>
+          <t>01-01-007A</t>
         </is>
       </c>
       <c r="C34" s="2" t="n">
-        <v>45885.21059117946</v>
+        <v>45885.28285286207</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -1467,11 +1467,11 @@
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>03-01-001-A</t>
+          <t>01-01-007A</t>
         </is>
       </c>
       <c r="C35" s="2" t="n">
-        <v>45885.21059117946</v>
+        <v>45885.28285286207</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -1501,7 +1501,7 @@
         </is>
       </c>
       <c r="C36" s="2" t="n">
-        <v>45885.2939245128</v>
+        <v>45885.3661861954</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -1531,7 +1531,7 @@
         </is>
       </c>
       <c r="C37" s="2" t="n">
-        <v>45885.2939245128</v>
+        <v>45885.3661861954</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -1561,7 +1561,7 @@
         </is>
       </c>
       <c r="C38" s="2" t="n">
-        <v>45885.2939245128</v>
+        <v>45885.3661861954</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -1591,7 +1591,7 @@
         </is>
       </c>
       <c r="C39" s="2" t="n">
-        <v>45885.1689245128</v>
+        <v>45885.2411861954</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -1621,7 +1621,7 @@
         </is>
       </c>
       <c r="C40" s="2" t="n">
-        <v>45885.12725784614</v>
+        <v>45885.19951952874</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -1651,7 +1651,7 @@
         </is>
       </c>
       <c r="C41" s="2" t="n">
-        <v>45885.08559117946</v>
+        <v>45885.15785286207</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -1681,7 +1681,7 @@
         </is>
       </c>
       <c r="C42" s="2" t="n">
-        <v>45885.33559117946</v>
+        <v>45885.40785286207</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -1711,7 +1711,7 @@
         </is>
       </c>
       <c r="C43" s="2" t="n">
-        <v>45885.37725784614</v>
+        <v>45885.44951952874</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -1737,11 +1737,11 @@
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>04-01-001-A</t>
+          <t>01-01-007B</t>
         </is>
       </c>
       <c r="C44" s="2" t="n">
-        <v>45885.25225784614</v>
+        <v>45885.32451952874</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -1767,11 +1767,11 @@
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>04-01-002-A</t>
+          <t>01-01-007C</t>
         </is>
       </c>
       <c r="C45" s="2" t="n">
-        <v>45885.25225784614</v>
+        <v>45885.32451952874</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -1797,11 +1797,11 @@
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>01-03-001-A</t>
+          <t>01-01-008A</t>
         </is>
       </c>
       <c r="C46" s="2" t="n">
-        <v>45885.33559117946</v>
+        <v>45885.40785286207</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -1827,11 +1827,11 @@
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>01-03-002-B</t>
+          <t>01-01-008B</t>
         </is>
       </c>
       <c r="C47" s="2" t="n">
-        <v>45885.33559117946</v>
+        <v>45885.40785286207</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -1857,11 +1857,11 @@
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>01-03-003-C</t>
+          <t>01-01-008C</t>
         </is>
       </c>
       <c r="C48" s="2" t="n">
-        <v>45885.33559117946</v>
+        <v>45885.40785286207</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -1887,11 +1887,11 @@
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>02-02-001-A</t>
+          <t>01-01-009A</t>
         </is>
       </c>
       <c r="C49" s="2" t="n">
-        <v>45885.33559117946</v>
+        <v>45885.40785286207</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -1917,11 +1917,11 @@
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>02-02-002-B</t>
+          <t>01-01-009B</t>
         </is>
       </c>
       <c r="C50" s="2" t="n">
-        <v>45885.33559117946</v>
+        <v>45885.40785286207</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -1947,11 +1947,11 @@
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>02-02-003-C</t>
+          <t>01-01-009C</t>
         </is>
       </c>
       <c r="C51" s="2" t="n">
-        <v>45885.33559117946</v>
+        <v>45885.40785286207</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -1977,11 +1977,11 @@
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>03-02-001-A</t>
+          <t>01-01-010A</t>
         </is>
       </c>
       <c r="C52" s="2" t="n">
-        <v>45885.33559117946</v>
+        <v>45885.40785286207</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -2007,11 +2007,11 @@
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>STAGE-01</t>
+          <t>STG-001</t>
         </is>
       </c>
       <c r="C53" s="2" t="n">
-        <v>45885.37725784614</v>
+        <v>45885.44951952874</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -2037,11 +2037,11 @@
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>STAGE-01</t>
+          <t>STG-002</t>
         </is>
       </c>
       <c r="C54" s="2" t="n">
-        <v>45885.37725784614</v>
+        <v>45885.44951952874</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -2067,11 +2067,11 @@
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>STAGE-02</t>
+          <t>STAGING-A</t>
         </is>
       </c>
       <c r="C55" s="2" t="n">
-        <v>45885.37725784614</v>
+        <v>45885.44951952874</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -2101,7 +2101,7 @@
         </is>
       </c>
       <c r="C56" s="2" t="n">
-        <v>45885.39809117946</v>
+        <v>45885.47035286207</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -2131,7 +2131,7 @@
         </is>
       </c>
       <c r="C57" s="2" t="n">
-        <v>45885.39809117946</v>
+        <v>45885.47035286207</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
